--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20055" windowHeight="8040"/>
+    <workbookView windowWidth="18480" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>caseID</t>
   </si>
@@ -60,13 +60,16 @@
     <t>post</t>
   </si>
   <si>
+    <t>API案例实战</t>
+  </si>
+  <si>
     <t>book_003</t>
   </si>
   <si>
     <t>查看书籍</t>
   </si>
   <si>
-    <t>http://127.0.0.1:5000/v1/api/books/{bookID}</t>
+    <t>http://127.0.0.1:5000/v1/api/book/{bookID}</t>
   </si>
   <si>
     <t>book_004</t>
@@ -78,6 +81,9 @@
     <t>put</t>
   </si>
   <si>
+    <t>长得帅</t>
+  </si>
+  <si>
     <t>book_005</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
   </si>
   <si>
     <t>delete</t>
+  </si>
+  <si>
+    <t>删除书籍成功</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -95,12 +104,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +127,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10.5"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -125,11 +141,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,70 +200,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,9 +216,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,28 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,157 +284,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,28 +487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,16 +521,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +558,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,7 +577,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -573,141 +589,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,7 +1080,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1110,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1126,70 +1145,82 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="http://127.0.0.1:5000/v1/api/books/{bookID}" tooltip="http://127.0.0.1:5000/v1/api/books/{bookID}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://127.0.0.1:5000/v1/api/books"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://127.0.0.1:5000/v1/api/books"/>
-    <hyperlink ref="C5" r:id="rId1" display="http://127.0.0.1:5000/v1/api/books/{bookID}" tooltip="http://127.0.0.1:5000/v1/api/books/{bookID}"/>
-    <hyperlink ref="C6" r:id="rId1" display="http://127.0.0.1:5000/v1/api/books/{bookID}" tooltip="http://127.0.0.1:5000/v1/api/books/{bookID}"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://127.0.0.1:5000/v1/api/books"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://127.0.0.1:5000/v1/api/books"/>
+    <hyperlink ref="C5" r:id="rId2" display="http://127.0.0.1:5000/v1/api/book/{bookID}" tooltip="http://127.0.0.1:5000/v1/api/book/{bookID}"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://127.0.0.1:5000/v1/api/book/{bookID}" tooltip="http://127.0.0.1:5000/v1/api/book/{bookID}"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://127.0.0.1:5000/v1/api/book/{bookID}" tooltip="http://127.0.0.1:5000/v1/api/book/{bookID}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
